--- a/data/2020 update/enviro_data_summary.xlsx
+++ b/data/2020 update/enviro_data_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sportnzgroup-my.sharepoint.com/personal/ben_day_hpsnz_org_nz/Documents/Documents/INTELLIGENCE/DATA PROJECTS/20181201 Environmental Report/environmental_report/data/2020 update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_19482777074095BAC9EB40822F1739101A8B8381" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{040946B5-4394-478A-B2F0-61B328E5CAFF}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_19482777074095BAC9EB40822F1739101A8B8381" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3C6563DF-3F89-49B3-B627-CA2A04DA1016}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edogawa" sheetId="1" r:id="rId1"/>
@@ -1305,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4116,9 +4116,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4584,9 +4589,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
